--- a/Documentation/Person Hours.xlsx
+++ b/Documentation/Person Hours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stoned_Darksst\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stoned_Darksst\Desktop\Fall 2021\EECS 448\Project 1\EECS-448_Project-1_G11\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005E5974-559E-4888-B1F4-B9BFA9DBA4CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E66361-F80B-45EA-B3C0-CA69DCCCDA98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Person Hours</t>
   </si>
@@ -69,7 +69,10 @@
     <t>Estimated=100</t>
   </si>
   <si>
-    <t>Total=95</t>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Total=102</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +428,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -436,7 +439,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -447,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -458,12 +461,12 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -600,6 +603,26 @@
         <v>1</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
